--- a/Data-Call-Center.xlsx
+++ b/Data-Call-Center.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Excel-chandu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCEC9CE-237E-4775-8EDA-382AAB5E84DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C60E6A-A6B2-4B7C-BFF2-9D00CDCE09DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{680501D2-1D58-4043-8C51-363F2BA2A10E}"/>
   </bookViews>
@@ -2726,26 +2726,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2781,6 +2761,16 @@
       <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2789,6 +2779,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2815,13 +2815,13 @@
     <tableColumn id="3" xr3:uid="{6407E710-4F1F-44B1-A2C9-94A3418CA353}" name="Last Name"/>
     <tableColumn id="4" xr3:uid="{B7D151F7-EFE1-427E-8B9F-B97A15DD04DF}" name="Gender"/>
     <tableColumn id="5" xr3:uid="{2996A7AA-F43B-493C-BBF3-7C57A24AE1EE}" name="Department"/>
-    <tableColumn id="6" xr3:uid="{71CE6161-E6C5-4410-B246-19E3FA429038}" name="Salary" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{71CE6161-E6C5-4410-B246-19E3FA429038}" name="Salary" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{C67AB901-4538-43A1-BB87-D43A83DCCE34}" name="Salary Bucket"/>
-    <tableColumn id="8" xr3:uid="{411E3085-ED34-48D1-8089-0B3F2EBFAE80}" name="Start Date" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{411E3085-ED34-48D1-8089-0B3F2EBFAE80}" name="Start Date" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{23E60836-86A5-4AC1-859C-5B2890F918B5}" name="FTE"/>
     <tableColumn id="10" xr3:uid="{0F35E275-73FB-4642-BA5F-D3AD4580C090}" name="Employee type"/>
     <tableColumn id="11" xr3:uid="{63428758-69D0-4747-83A2-BF4032C1F33A}" name="Work location"/>
-    <tableColumn id="12" xr3:uid="{DC70F517-2D46-4485-8F40-30B1F763D659}" name="Tenure" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{DC70F517-2D46-4485-8F40-30B1F763D659}" name="Tenure" dataDxfId="10"/>
     <tableColumn id="13" xr3:uid="{07723B33-9311-49F8-9D3B-B0F42A2A758A}" name="Work Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2842,11 +2842,11 @@
     <tableColumn id="5" xr3:uid="{8945220D-287A-4A43-9408-DB455E83D698}" name="Department"/>
     <tableColumn id="6" xr3:uid="{8DD2E7D6-D890-4E3E-8BEC-4A0349B8A288}" name="Salary" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{814BB73D-5B04-41CB-A0CD-F5ADE14D99C8}" name="Salary Bucket"/>
-    <tableColumn id="8" xr3:uid="{6D52F7D0-46C6-4041-83F9-AE50E9819632}" name="Start Date" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{6D52F7D0-46C6-4041-83F9-AE50E9819632}" name="Start Date" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{CEBD43BA-55EA-463C-8A7A-EEBBC06D2A37}" name="FTE"/>
     <tableColumn id="10" xr3:uid="{3DD39931-CBD9-4843-A5A2-51AB7E0FE1A2}" name="Employee type"/>
     <tableColumn id="11" xr3:uid="{3187B700-507E-4320-86E6-9CEB6EE9397F}" name="Work location"/>
-    <tableColumn id="12" xr3:uid="{2556BBFD-BB0B-4697-B7A7-FCB8F9B05E63}" name="Tenure" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{2556BBFD-BB0B-4697-B7A7-FCB8F9B05E63}" name="Tenure" dataDxfId="7"/>
     <tableColumn id="13" xr3:uid="{173A2F22-4DA1-404A-99F3-7ABA76FDC77F}" name="Work Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2854,17 +2854,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{403E67C1-B2D7-414C-BA7B-FC9F5B56AAF1}" name="SalaryByDepartment" displayName="SalaryByDepartment" ref="E5:I18" totalsRowShown="0" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{403E67C1-B2D7-414C-BA7B-FC9F5B56AAF1}" name="SalaryByDepartment" displayName="SalaryByDepartment" ref="E5:I18" totalsRowShown="0" tableBorderDxfId="6">
   <autoFilter ref="E5:I18" xr:uid="{403E67C1-B2D7-414C-BA7B-FC9F5B56AAF1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1FFAE504-6D30-4C6B-A200-903AA89C5C97}" name="Department"/>
     <tableColumn id="2" xr3:uid="{3DB588FC-4F8E-4EB7-946D-C2D78FADDB3E}" name="Head Count">
       <calculatedColumnFormula>COUNTIF(staff[Department],E6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E0AE5710-7318-46A7-A7D3-F392B6915F19}" name="Total Salary" dataDxfId="7" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{E0AE5710-7318-46A7-A7D3-F392B6915F19}" name="Total Salary" dataDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>SUMIF(staff[Department],E6,staff[Salary])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CD04FD5F-DA10-41D3-83DA-E455BB81F706}" name="Avg Salary" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{CD04FD5F-DA10-41D3-83DA-E455BB81F706}" name="Avg Salary" dataDxfId="4">
       <calculatedColumnFormula>AVERAGEIF(staff[Department],SalaryByDepartment[[#This Row],[Department]],staff[Salary])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{69F0113A-2CD5-4859-B0E4-6D5924B6883A}" name="Permanent Headcount Avg Salary" dataCellStyle="Currency">
@@ -13914,7 +13914,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A261">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -23386,7 +23386,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A230">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33348,8 +33348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CFE8CD-6629-4870-954C-FE2BF0A501D2}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -33801,8 +33801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E24BB5A-AEA6-47BF-8B05-80A3B6F6DA8F}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
